--- a/SpreadSheet.xlsx
+++ b/SpreadSheet.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\student\OneDrive - NTNU\RadioCommunications\SemesterProject\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\student\florina\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="8805" windowHeight="7065"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="8805" windowHeight="7065" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
@@ -52,22 +52,6 @@
     <t>IMPLEMENTATION OF Pulse Modulation</t>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">TODO 
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>EVERYTHING</t>
-    </r>
-  </si>
-  <si>
     <t>GENERAL</t>
   </si>
   <si>
@@ -75,12 +59,17 @@
 -&gt; 8 bit or 16 bit per sample
 -&gt; 44,1 kHz sample rate</t>
   </si>
+  <si>
+    <t>TODO 
+-&gt; MT GENERATE PSK SYSTEM PARAMETERS
+-&gt; MT GENERATE FILTER COEFFICEINTS</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -105,13 +94,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -236,21 +218,21 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table3" displayName="Table3" ref="A1:A1048576" totalsRowShown="0" headerRowDxfId="1" dataDxfId="0" dataCellStyle="Input">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table3" displayName="Table3" ref="A1:A1048576" totalsRowShown="0" headerRowDxfId="6" dataDxfId="5" dataCellStyle="Input">
   <autoFilter ref="A1:A1048576"/>
   <tableColumns count="1">
-    <tableColumn id="1" name="GENERAL" dataDxfId="2" dataCellStyle="Input"/>
+    <tableColumn id="1" name="GENERAL" dataDxfId="4" dataCellStyle="Input"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight10" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="A1:B1048576" totalsRowShown="0" headerRowDxfId="3" dataDxfId="4">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="A1:B1048576" totalsRowShown="0" headerRowDxfId="3" dataDxfId="2">
   <autoFilter ref="A1:B1048576"/>
   <tableColumns count="2">
-    <tableColumn id="1" name="TASK" dataDxfId="6"/>
-    <tableColumn id="2" name="STATUS" dataDxfId="5"/>
+    <tableColumn id="1" name="TASK" dataDxfId="1"/>
+    <tableColumn id="2" name="STATUS" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium22" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -555,25 +537,25 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="62.140625" style="6" customWidth="1"/>
-    <col min="2" max="2" width="20.28515625" hidden="1"/>
+    <col min="2" max="2" width="20.28515625" hidden="1" customWidth="1"/>
     <col min="3" max="16384" width="11.42578125" hidden="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:1" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
   </sheetData>
@@ -586,9 +568,9 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:XFD3"/>
+  <dimension ref="A1:XFC3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
@@ -621,7 +603,7 @@
         <v>5</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C3" s="1"/>
     </row>
